--- a/out/CE/falselink/Figori_algorithm_21.xlsx
+++ b/out/CE/falselink/Figori_algorithm_21.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.8569</v>
+        <v>0.87970000000000004</v>
       </c>
       <c r="B1">
-        <v>0.84789999999999999</v>
+        <v>0.84140000000000004</v>
       </c>
       <c r="C1">
-        <v>0.84619999999999995</v>
+        <v>0.84870000000000001</v>
       </c>
       <c r="D1">
-        <v>0.85829999999999995</v>
+        <v>0.85809999999999997</v>
       </c>
       <c r="E1">
+        <v>0.86509999999999998</v>
+      </c>
+      <c r="F1">
+        <v>0.84860000000000002</v>
+      </c>
+      <c r="G1">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H1">
+        <v>0.86240000000000006</v>
+      </c>
+      <c r="I1">
+        <v>0.86080000000000001</v>
+      </c>
+      <c r="J1">
+        <v>0.84650000000000003</v>
+      </c>
+      <c r="K1">
+        <v>0.87290000000000001</v>
+      </c>
+      <c r="L1">
+        <v>0.85770000000000002</v>
+      </c>
+      <c r="M1">
+        <v>0.85950000000000004</v>
+      </c>
+      <c r="N1">
+        <v>0.85760000000000003</v>
+      </c>
+      <c r="O1">
+        <v>0.86619999999999997</v>
+      </c>
+      <c r="P1">
+        <v>0.87109999999999999</v>
+      </c>
+      <c r="Q1">
+        <v>0.84719999999999995</v>
+      </c>
+      <c r="R1">
+        <v>0.86309999999999998</v>
+      </c>
+      <c r="S1">
+        <v>0.83730000000000004</v>
+      </c>
+      <c r="T1">
         <v>0.86339999999999995</v>
       </c>
-      <c r="F1">
-        <v>0.8458</v>
-      </c>
-      <c r="G1">
-        <v>0.86329999999999996</v>
-      </c>
-      <c r="H1">
-        <v>0.87480000000000002</v>
-      </c>
-      <c r="I1">
-        <v>0.8659</v>
-      </c>
-      <c r="J1">
-        <v>0.87250000000000005</v>
-      </c>
-      <c r="K1">
-        <v>0.85160000000000002</v>
-      </c>
-      <c r="L1">
-        <v>0.8659</v>
-      </c>
-      <c r="M1">
-        <v>0.85940000000000005</v>
-      </c>
-      <c r="N1">
-        <v>0.85540000000000005</v>
-      </c>
-      <c r="O1">
-        <v>0.85870000000000002</v>
-      </c>
-      <c r="P1">
-        <v>0.85760000000000003</v>
-      </c>
-      <c r="Q1">
-        <v>0.82930000000000004</v>
-      </c>
-      <c r="R1">
-        <v>0.87660000000000005</v>
-      </c>
-      <c r="S1">
-        <v>0.88170000000000004</v>
-      </c>
-      <c r="T1">
-        <v>0.87260000000000004</v>
-      </c>
       <c r="U1">
-        <v>0.83030000000000004</v>
+        <v>0.85040000000000004</v>
       </c>
       <c r="V1">
-        <v>0.85070000000000001</v>
+        <v>0.86880000000000002</v>
       </c>
       <c r="W1">
-        <v>0.86870000000000003</v>
+        <v>0.87719999999999998</v>
       </c>
       <c r="X1">
-        <v>0.8629</v>
+        <v>0.84860000000000002</v>
       </c>
       <c r="Y1">
-        <v>0.85750000000000004</v>
+        <v>0.85660000000000003</v>
       </c>
       <c r="Z1">
-        <v>0.87280000000000002</v>
+        <v>0.86919999999999997</v>
       </c>
       <c r="AA1">
-        <v>0.85760000000000003</v>
+        <v>0.85199999999999998</v>
       </c>
       <c r="AB1">
-        <v>0.86960000000000004</v>
+        <v>0.85029999999999994</v>
       </c>
       <c r="AC1">
-        <v>0.86050000000000004</v>
+        <v>0.88239999999999996</v>
       </c>
       <c r="AD1">
-        <v>0.84399999999999997</v>
+        <v>0.85699999999999998</v>
       </c>
       <c r="AE1">
-        <v>0.84050000000000002</v>
+        <v>0.84740000000000004</v>
       </c>
       <c r="AF1">
-        <v>0.86580000000000001</v>
+        <v>0.87170000000000003</v>
       </c>
       <c r="AG1">
-        <v>0.84</v>
+        <v>0.87229999999999996</v>
       </c>
       <c r="AH1">
-        <v>0.871</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="AI1">
-        <v>0.84860000000000002</v>
+        <v>0.86160000000000003</v>
       </c>
       <c r="AJ1">
-        <v>0.86509999999999998</v>
+        <v>0.85799999999999998</v>
       </c>
       <c r="AK1">
-        <v>0.87280000000000002</v>
+        <v>0.85670000000000002</v>
       </c>
       <c r="AL1">
-        <v>0.85980000000000001</v>
+        <v>0.83660000000000001</v>
       </c>
       <c r="AM1">
-        <v>0.87229999999999996</v>
+        <v>0.86929999999999996</v>
       </c>
       <c r="AN1">
-        <v>0.86129999999999995</v>
+        <v>0.85709999999999997</v>
       </c>
       <c r="AO1">
-        <v>0.85980000000000001</v>
+        <v>0.87139999999999995</v>
       </c>
       <c r="AP1">
-        <v>0.85429999999999995</v>
+        <v>0.87419999999999998</v>
       </c>
       <c r="AQ1">
-        <v>0.87490000000000001</v>
+        <v>0.85650000000000004</v>
       </c>
       <c r="AR1">
-        <v>0.87880000000000003</v>
+        <v>0.83899999999999997</v>
       </c>
       <c r="AS1">
-        <v>0.88390000000000002</v>
+        <v>0.87190000000000001</v>
       </c>
       <c r="AT1">
-        <v>0.86209999999999998</v>
+        <v>0.88009999999999999</v>
       </c>
       <c r="AU1">
-        <v>0.8679</v>
+        <v>0.86409999999999998</v>
       </c>
       <c r="AV1">
-        <v>0.86619999999999997</v>
+        <v>0.86609999999999998</v>
       </c>
       <c r="AW1">
-        <v>0.88170000000000004</v>
+        <v>0.85680000000000001</v>
       </c>
       <c r="AX1">
-        <v>0.85870000000000002</v>
+        <v>0.86170000000000002</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>0.84619999999999995</v>
+        <v>0.86460000000000004</v>
       </c>
       <c r="B2">
-        <v>0.83279999999999998</v>
+        <v>0.82350000000000001</v>
       </c>
       <c r="C2">
-        <v>0.82709999999999995</v>
+        <v>0.83309999999999995</v>
       </c>
       <c r="D2">
-        <v>0.83599999999999997</v>
+        <v>0.83630000000000004</v>
       </c>
       <c r="E2">
-        <v>0.85009999999999997</v>
+        <v>0.8498</v>
       </c>
       <c r="F2">
-        <v>0.81499999999999995</v>
+        <v>0.81569999999999998</v>
       </c>
       <c r="G2">
-        <v>0.82410000000000005</v>
+        <v>0.84460000000000002</v>
       </c>
       <c r="H2">
-        <v>0.85350000000000004</v>
+        <v>0.8458</v>
       </c>
       <c r="I2">
-        <v>0.84019999999999995</v>
+        <v>0.85170000000000001</v>
       </c>
       <c r="J2">
-        <v>0.85170000000000001</v>
+        <v>0.83660000000000001</v>
       </c>
       <c r="K2">
-        <v>0.83530000000000004</v>
+        <v>0.85950000000000004</v>
       </c>
       <c r="L2">
-        <v>0.84399999999999997</v>
+        <v>0.83460000000000001</v>
       </c>
       <c r="M2">
-        <v>0.82969999999999999</v>
+        <v>0.8206</v>
       </c>
       <c r="N2">
-        <v>0.82920000000000005</v>
+        <v>0.84289999999999998</v>
       </c>
       <c r="O2">
-        <v>0.84319999999999995</v>
+        <v>0.84640000000000004</v>
       </c>
       <c r="P2">
-        <v>0.83209999999999995</v>
+        <v>0.86240000000000006</v>
       </c>
       <c r="Q2">
-        <v>0.80689999999999995</v>
+        <v>0.8337</v>
       </c>
       <c r="R2">
-        <v>0.85370000000000001</v>
+        <v>0.82899999999999996</v>
       </c>
       <c r="S2">
-        <v>0.85109999999999997</v>
+        <v>0.81230000000000002</v>
       </c>
       <c r="T2">
-        <v>0.8468</v>
+        <v>0.83189999999999997</v>
       </c>
       <c r="U2">
-        <v>0.81140000000000001</v>
+        <v>0.84440000000000004</v>
       </c>
       <c r="V2">
-        <v>0.83499999999999996</v>
+        <v>0.8528</v>
       </c>
       <c r="W2">
-        <v>0.85109999999999997</v>
+        <v>0.85040000000000004</v>
       </c>
       <c r="X2">
-        <v>0.84809999999999997</v>
+        <v>0.84140000000000004</v>
       </c>
       <c r="Y2">
-        <v>0.84240000000000004</v>
+        <v>0.82379999999999998</v>
       </c>
       <c r="Z2">
-        <v>0.85329999999999995</v>
+        <v>0.84489999999999998</v>
       </c>
       <c r="AA2">
-        <v>0.83250000000000002</v>
+        <v>0.83840000000000003</v>
       </c>
       <c r="AB2">
-        <v>0.83460000000000001</v>
+        <v>0.83409999999999995</v>
       </c>
       <c r="AC2">
-        <v>0.84360000000000002</v>
+        <v>0.86019999999999996</v>
       </c>
       <c r="AD2">
-        <v>0.80289999999999995</v>
+        <v>0.83860000000000001</v>
       </c>
       <c r="AE2">
-        <v>0.82299999999999995</v>
+        <v>0.81569999999999998</v>
       </c>
       <c r="AF2">
-        <v>0.81510000000000005</v>
+        <v>0.84570000000000001</v>
       </c>
       <c r="AG2">
-        <v>0.82320000000000004</v>
+        <v>0.84470000000000001</v>
       </c>
       <c r="AH2">
-        <v>0.85350000000000004</v>
+        <v>0.81630000000000003</v>
       </c>
       <c r="AI2">
-        <v>0.82330000000000003</v>
+        <v>0.8427</v>
       </c>
       <c r="AJ2">
-        <v>0.84009999999999996</v>
+        <v>0.82769999999999999</v>
       </c>
       <c r="AK2">
-        <v>0.83389999999999997</v>
+        <v>0.82469999999999999</v>
       </c>
       <c r="AL2">
-        <v>0.82769999999999999</v>
+        <v>0.79269999999999996</v>
       </c>
       <c r="AM2">
-        <v>0.85399999999999998</v>
+        <v>0.85389999999999999</v>
       </c>
       <c r="AN2">
-        <v>0.83579999999999999</v>
+        <v>0.84160000000000001</v>
       </c>
       <c r="AO2">
-        <v>0.83679999999999999</v>
+        <v>0.85060000000000002</v>
       </c>
       <c r="AP2">
-        <v>0.83199999999999996</v>
+        <v>0.84279999999999999</v>
       </c>
       <c r="AQ2">
-        <v>0.84899999999999998</v>
+        <v>0.8357</v>
       </c>
       <c r="AR2">
-        <v>0.86199999999999999</v>
+        <v>0.82440000000000002</v>
       </c>
       <c r="AS2">
-        <v>0.85429999999999995</v>
+        <v>0.86450000000000005</v>
       </c>
       <c r="AT2">
-        <v>0.84609999999999996</v>
+        <v>0.84119999999999995</v>
       </c>
       <c r="AU2">
-        <v>0.85780000000000001</v>
+        <v>0.84389999999999998</v>
       </c>
       <c r="AV2">
-        <v>0.85160000000000002</v>
+        <v>0.85029999999999994</v>
       </c>
       <c r="AW2">
-        <v>0.85660000000000003</v>
+        <v>0.83699999999999997</v>
       </c>
       <c r="AX2">
-        <v>0.82850000000000001</v>
+        <v>0.83760000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.79549999999999998</v>
+        <v>0.78320000000000001</v>
       </c>
       <c r="B3">
-        <v>0.77990000000000004</v>
+        <v>0.78169999999999995</v>
       </c>
       <c r="C3">
-        <v>0.77829999999999999</v>
+        <v>0.78869999999999996</v>
       </c>
       <c r="D3">
-        <v>0.77370000000000005</v>
+        <v>0.79890000000000005</v>
       </c>
       <c r="E3">
-        <v>0.81969999999999998</v>
+        <v>0.79559999999999997</v>
       </c>
       <c r="F3">
-        <v>0.74709999999999999</v>
+        <v>0.76</v>
       </c>
       <c r="G3">
-        <v>0.78180000000000005</v>
+        <v>0.79759999999999998</v>
       </c>
       <c r="H3">
-        <v>0.80320000000000003</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="I3">
-        <v>0.79239999999999999</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="J3">
-        <v>0.79600000000000004</v>
+        <v>0.79020000000000001</v>
       </c>
       <c r="K3">
-        <v>0.79320000000000002</v>
+        <v>0.80220000000000002</v>
       </c>
       <c r="L3">
-        <v>0.80169999999999997</v>
+        <v>0.79710000000000003</v>
       </c>
       <c r="M3">
-        <v>0.78439999999999999</v>
+        <v>0.78039999999999998</v>
       </c>
       <c r="N3">
-        <v>0.76929999999999998</v>
+        <v>0.78749999999999998</v>
       </c>
       <c r="O3">
-        <v>0.81110000000000004</v>
+        <v>0.80959999999999999</v>
       </c>
       <c r="P3">
-        <v>0.77429999999999999</v>
+        <v>0.80330000000000001</v>
       </c>
       <c r="Q3">
-        <v>0.76390000000000002</v>
+        <v>0.79990000000000006</v>
       </c>
       <c r="R3">
-        <v>0.80489999999999995</v>
+        <v>0.78200000000000003</v>
       </c>
       <c r="S3">
-        <v>0.81820000000000004</v>
+        <v>0.76800000000000002</v>
       </c>
       <c r="T3">
-        <v>0.79669999999999996</v>
+        <v>0.78510000000000002</v>
       </c>
       <c r="U3">
-        <v>0.77190000000000003</v>
+        <v>0.8095</v>
       </c>
       <c r="V3">
-        <v>0.7863</v>
+        <v>0.79090000000000005</v>
       </c>
       <c r="W3">
-        <v>0.81720000000000004</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="X3">
-        <v>0.80869999999999997</v>
+        <v>0.79090000000000005</v>
       </c>
       <c r="Y3">
-        <v>0.78359999999999996</v>
+        <v>0.76910000000000001</v>
       </c>
       <c r="Z3">
-        <v>0.8</v>
+        <v>0.78769999999999996</v>
       </c>
       <c r="AA3">
-        <v>0.75239999999999996</v>
+        <v>0.78190000000000004</v>
       </c>
       <c r="AB3">
-        <v>0.77359999999999995</v>
+        <v>0.79369999999999996</v>
       </c>
       <c r="AC3">
-        <v>0.79359999999999997</v>
+        <v>0.80469999999999997</v>
       </c>
       <c r="AD3">
-        <v>0.74550000000000005</v>
+        <v>0.79769999999999996</v>
       </c>
       <c r="AE3">
-        <v>0.77829999999999999</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="AF3">
-        <v>0.77080000000000004</v>
+        <v>0.80089999999999995</v>
       </c>
       <c r="AG3">
-        <v>0.7702</v>
+        <v>0.79690000000000005</v>
       </c>
       <c r="AH3">
-        <v>0.80089999999999995</v>
+        <v>0.78210000000000002</v>
       </c>
       <c r="AI3">
-        <v>0.76719999999999999</v>
+        <v>0.80900000000000005</v>
       </c>
       <c r="AJ3">
+        <v>0.75900000000000001</v>
+      </c>
+      <c r="AK3">
+        <v>0.77869999999999995</v>
+      </c>
+      <c r="AL3">
+        <v>0.75700000000000001</v>
+      </c>
+      <c r="AM3">
+        <v>0.79800000000000004</v>
+      </c>
+      <c r="AN3">
+        <v>0.79290000000000005</v>
+      </c>
+      <c r="AO3">
         <v>0.79330000000000001</v>
       </c>
-      <c r="AK3">
-        <v>0.7792</v>
-      </c>
-      <c r="AL3">
-        <v>0.77769999999999995</v>
-      </c>
-      <c r="AM3">
-        <v>0.81589999999999996</v>
-      </c>
-      <c r="AN3">
-        <v>0.78890000000000005</v>
-      </c>
-      <c r="AO3">
+      <c r="AP3">
+        <v>0.80120000000000002</v>
+      </c>
+      <c r="AQ3">
+        <v>0.7974</v>
+      </c>
+      <c r="AR3">
+        <v>0.76039999999999996</v>
+      </c>
+      <c r="AS3">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="AT3">
+        <v>0.78720000000000001</v>
+      </c>
+      <c r="AU3">
         <v>0.78800000000000003</v>
       </c>
-      <c r="AP3">
-        <v>0.79</v>
-      </c>
-      <c r="AQ3">
-        <v>0.79339999999999999</v>
-      </c>
-      <c r="AR3">
-        <v>0.81379999999999997</v>
-      </c>
-      <c r="AS3">
-        <v>0.82069999999999999</v>
-      </c>
-      <c r="AT3">
-        <v>0.77090000000000003</v>
-      </c>
-      <c r="AU3">
-        <v>0.79910000000000003</v>
-      </c>
       <c r="AV3">
-        <v>0.79530000000000001</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="AW3">
-        <v>0.80159999999999998</v>
+        <v>0.77290000000000003</v>
       </c>
       <c r="AX3">
-        <v>0.77110000000000001</v>
+        <v>0.79579999999999995</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.72770000000000001</v>
+        <v>0.7117</v>
       </c>
       <c r="B4">
-        <v>0.71640000000000004</v>
+        <v>0.71340000000000003</v>
       </c>
       <c r="C4">
-        <v>0.71779999999999999</v>
+        <v>0.71889999999999998</v>
       </c>
       <c r="D4">
-        <v>0.72360000000000002</v>
+        <v>0.74629999999999996</v>
       </c>
       <c r="E4">
-        <v>0.74119999999999997</v>
+        <v>0.72109999999999996</v>
       </c>
       <c r="F4">
-        <v>0.68149999999999999</v>
+        <v>0.70050000000000001</v>
       </c>
       <c r="G4">
-        <v>0.71879999999999999</v>
+        <v>0.7419</v>
       </c>
       <c r="H4">
-        <v>0.74160000000000004</v>
+        <v>0.74150000000000005</v>
       </c>
       <c r="I4">
-        <v>0.75319999999999998</v>
+        <v>0.7016</v>
       </c>
       <c r="J4">
-        <v>0.7268</v>
+        <v>0.73429999999999995</v>
       </c>
       <c r="K4">
-        <v>0.72870000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="L4">
-        <v>0.75109999999999999</v>
+        <v>0.74639999999999995</v>
       </c>
       <c r="M4">
-        <v>0.73040000000000005</v>
+        <v>0.70230000000000004</v>
       </c>
       <c r="N4">
-        <v>0.72289999999999999</v>
+        <v>0.70550000000000002</v>
       </c>
       <c r="O4">
-        <v>0.7641</v>
+        <v>0.74909999999999999</v>
       </c>
       <c r="P4">
-        <v>0.71189999999999998</v>
+        <v>0.74099999999999999</v>
       </c>
       <c r="Q4">
-        <v>0.72760000000000002</v>
+        <v>0.73150000000000004</v>
       </c>
       <c r="R4">
-        <v>0.72440000000000004</v>
+        <v>0.73409999999999997</v>
       </c>
       <c r="S4">
+        <v>0.68640000000000001</v>
+      </c>
+      <c r="T4">
+        <v>0.70960000000000001</v>
+      </c>
+      <c r="U4">
+        <v>0.75429999999999997</v>
+      </c>
+      <c r="V4">
+        <v>0.73750000000000004</v>
+      </c>
+      <c r="W4">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="X4">
+        <v>0.71560000000000001</v>
+      </c>
+      <c r="Y4">
+        <v>0.71940000000000004</v>
+      </c>
+      <c r="Z4">
+        <v>0.70179999999999998</v>
+      </c>
+      <c r="AA4">
+        <v>0.7278</v>
+      </c>
+      <c r="AB4">
+        <v>0.76039999999999996</v>
+      </c>
+      <c r="AC4">
+        <v>0.74270000000000003</v>
+      </c>
+      <c r="AD4">
+        <v>0.74639999999999995</v>
+      </c>
+      <c r="AE4">
+        <v>0.69520000000000004</v>
+      </c>
+      <c r="AF4">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="AG4">
+        <v>0.72850000000000004</v>
+      </c>
+      <c r="AH4">
+        <v>0.73360000000000003</v>
+      </c>
+      <c r="AI4">
+        <v>0.74419999999999997</v>
+      </c>
+      <c r="AJ4">
+        <v>0.70309999999999995</v>
+      </c>
+      <c r="AK4">
+        <v>0.7238</v>
+      </c>
+      <c r="AL4">
+        <v>0.69720000000000004</v>
+      </c>
+      <c r="AM4">
+        <v>0.74580000000000002</v>
+      </c>
+      <c r="AN4">
+        <v>0.72719999999999996</v>
+      </c>
+      <c r="AO4">
+        <v>0.70889999999999997</v>
+      </c>
+      <c r="AP4">
+        <v>0.71209999999999996</v>
+      </c>
+      <c r="AQ4">
+        <v>0.72570000000000001</v>
+      </c>
+      <c r="AR4">
+        <v>0.68910000000000005</v>
+      </c>
+      <c r="AS4">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="AT4">
+        <v>0.70379999999999998</v>
+      </c>
+      <c r="AU4">
         <v>0.74839999999999995</v>
       </c>
-      <c r="T4">
-        <v>0.72909999999999997</v>
-      </c>
-      <c r="U4">
-        <v>0.72219999999999995</v>
-      </c>
-      <c r="V4">
-        <v>0.71989999999999998</v>
-      </c>
-      <c r="W4">
-        <v>0.73170000000000002</v>
-      </c>
-      <c r="X4">
-        <v>0.74309999999999998</v>
-      </c>
-      <c r="Y4">
-        <v>0.72729999999999995</v>
-      </c>
-      <c r="Z4">
-        <v>0.74460000000000004</v>
-      </c>
-      <c r="AA4">
-        <v>0.69769999999999999</v>
-      </c>
-      <c r="AB4">
-        <v>0.72909999999999997</v>
-      </c>
-      <c r="AC4">
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="AD4">
-        <v>0.69189999999999996</v>
-      </c>
-      <c r="AE4">
-        <v>0.68069999999999997</v>
-      </c>
-      <c r="AF4">
-        <v>0.71120000000000005</v>
-      </c>
-      <c r="AG4">
-        <v>0.70760000000000001</v>
-      </c>
-      <c r="AH4">
-        <v>0.75480000000000003</v>
-      </c>
-      <c r="AI4">
-        <v>0.71309999999999996</v>
-      </c>
-      <c r="AJ4">
-        <v>0.73509999999999998</v>
-      </c>
-      <c r="AK4">
-        <v>0.70320000000000005</v>
-      </c>
-      <c r="AL4">
-        <v>0.74880000000000002</v>
-      </c>
-      <c r="AM4">
-        <v>0.75629999999999997</v>
-      </c>
-      <c r="AN4">
-        <v>0.70579999999999998</v>
-      </c>
-      <c r="AO4">
-        <v>0.73160000000000003</v>
-      </c>
-      <c r="AP4">
-        <v>0.72650000000000003</v>
-      </c>
-      <c r="AQ4">
-        <v>0.7258</v>
-      </c>
-      <c r="AR4">
-        <v>0.76139999999999997</v>
-      </c>
-      <c r="AS4">
-        <v>0.75109999999999999</v>
-      </c>
-      <c r="AT4">
-        <v>0.69710000000000005</v>
-      </c>
-      <c r="AU4">
-        <v>0.74280000000000002</v>
-      </c>
       <c r="AV4">
-        <v>0.72499999999999998</v>
+        <v>0.74150000000000005</v>
       </c>
       <c r="AW4">
-        <v>0.74299999999999999</v>
+        <v>0.69610000000000005</v>
       </c>
       <c r="AX4">
-        <v>0.72209999999999996</v>
+        <v>0.72629999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>0.65180000000000005</v>
+      </c>
+      <c r="B5">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="C5">
+        <v>0.6492</v>
+      </c>
+      <c r="D5">
+        <v>0.66469999999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="F5">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="G5">
+        <v>0.6714</v>
+      </c>
+      <c r="H5">
+        <v>0.66779999999999995</v>
+      </c>
+      <c r="I5">
+        <v>0.63529999999999998</v>
+      </c>
+      <c r="J5">
         <v>0.67620000000000002</v>
       </c>
-      <c r="B5">
-        <v>0.64849999999999997</v>
-      </c>
-      <c r="C5">
-        <v>0.67700000000000005</v>
-      </c>
-      <c r="D5">
-        <v>0.67520000000000002</v>
-      </c>
-      <c r="E5">
-        <v>0.70420000000000005</v>
-      </c>
-      <c r="F5">
-        <v>0.64319999999999999</v>
-      </c>
-      <c r="G5">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="H5">
-        <v>0.66379999999999995</v>
-      </c>
-      <c r="I5">
-        <v>0.70040000000000002</v>
-      </c>
-      <c r="J5">
-        <v>0.67979999999999996</v>
-      </c>
       <c r="K5">
-        <v>0.65629999999999999</v>
+        <v>0.69699999999999995</v>
       </c>
       <c r="L5">
-        <v>0.68920000000000003</v>
+        <v>0.6794</v>
       </c>
       <c r="M5">
-        <v>0.65490000000000004</v>
+        <v>0.65349999999999997</v>
       </c>
       <c r="N5">
-        <v>0.65790000000000004</v>
+        <v>0.64149999999999996</v>
       </c>
       <c r="O5">
-        <v>0.6996</v>
+        <v>0.65569999999999995</v>
       </c>
       <c r="P5">
-        <v>0.65300000000000002</v>
+        <v>0.66510000000000002</v>
       </c>
       <c r="Q5">
-        <v>0.65669999999999995</v>
+        <v>0.67169999999999996</v>
       </c>
       <c r="R5">
-        <v>0.64839999999999998</v>
+        <v>0.67649999999999999</v>
       </c>
       <c r="S5">
-        <v>0.67300000000000004</v>
+        <v>0.64380000000000004</v>
       </c>
       <c r="T5">
-        <v>0.64190000000000003</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="U5">
-        <v>0.64600000000000002</v>
+        <v>0.71020000000000005</v>
       </c>
       <c r="V5">
-        <v>0.64780000000000004</v>
+        <v>0.65380000000000005</v>
       </c>
       <c r="W5">
-        <v>0.67310000000000003</v>
+        <v>0.69369999999999998</v>
       </c>
       <c r="X5">
-        <v>0.69779999999999998</v>
+        <v>0.67659999999999998</v>
       </c>
       <c r="Y5">
+        <v>0.6583</v>
+      </c>
+      <c r="Z5">
+        <v>0.65259999999999996</v>
+      </c>
+      <c r="AA5">
+        <v>0.67490000000000006</v>
+      </c>
+      <c r="AB5">
+        <v>0.6845</v>
+      </c>
+      <c r="AC5">
+        <v>0.68169999999999997</v>
+      </c>
+      <c r="AD5">
+        <v>0.67359999999999998</v>
+      </c>
+      <c r="AE5">
+        <v>0.6472</v>
+      </c>
+      <c r="AF5">
+        <v>0.64959999999999996</v>
+      </c>
+      <c r="AG5">
+        <v>0.64270000000000005</v>
+      </c>
+      <c r="AH5">
+        <v>0.66310000000000002</v>
+      </c>
+      <c r="AI5">
+        <v>0.66139999999999999</v>
+      </c>
+      <c r="AJ5">
+        <v>0.65690000000000004</v>
+      </c>
+      <c r="AK5">
+        <v>0.67730000000000001</v>
+      </c>
+      <c r="AL5">
         <v>0.6754</v>
       </c>
-      <c r="Z5">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="AA5">
-        <v>0.62949999999999995</v>
-      </c>
-      <c r="AB5">
-        <v>0.65390000000000004</v>
-      </c>
-      <c r="AC5">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="AD5">
-        <v>0.63729999999999998</v>
-      </c>
-      <c r="AE5">
-        <v>0.629</v>
-      </c>
-      <c r="AF5">
-        <v>0.6401</v>
-      </c>
-      <c r="AG5">
-        <v>0.66110000000000002</v>
-      </c>
-      <c r="AH5">
-        <v>0.7046</v>
-      </c>
-      <c r="AI5">
-        <v>0.66479999999999995</v>
-      </c>
-      <c r="AJ5">
-        <v>0.65869999999999995</v>
-      </c>
-      <c r="AK5">
-        <v>0.6583</v>
-      </c>
-      <c r="AL5">
-        <v>0.67910000000000004</v>
-      </c>
       <c r="AM5">
-        <v>0.70760000000000001</v>
+        <v>0.6804</v>
       </c>
       <c r="AN5">
-        <v>0.68</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="AO5">
-        <v>0.70199999999999996</v>
+        <v>0.63719999999999999</v>
       </c>
       <c r="AP5">
-        <v>0.6825</v>
+        <v>0.66420000000000001</v>
       </c>
       <c r="AQ5">
-        <v>0.68179999999999996</v>
+        <v>0.65900000000000003</v>
       </c>
       <c r="AR5">
-        <v>0.6976</v>
+        <v>0.64349999999999996</v>
       </c>
       <c r="AS5">
-        <v>0.70009999999999994</v>
+        <v>0.69289999999999996</v>
       </c>
       <c r="AT5">
-        <v>0.66110000000000002</v>
+        <v>0.65449999999999997</v>
       </c>
       <c r="AU5">
-        <v>0.69389999999999996</v>
+        <v>0.70540000000000003</v>
       </c>
       <c r="AV5">
-        <v>0.6542</v>
+        <v>0.67269999999999996</v>
       </c>
       <c r="AW5">
-        <v>0.66259999999999997</v>
+        <v>0.66290000000000004</v>
       </c>
       <c r="AX5">
-        <v>0.65749999999999997</v>
+        <v>0.65410000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.62929999999999997</v>
+        <v>0.6018</v>
       </c>
       <c r="B6">
-        <v>0.64319999999999999</v>
+        <v>0.58220000000000005</v>
       </c>
       <c r="C6">
-        <v>0.63419999999999999</v>
+        <v>0.59130000000000005</v>
       </c>
       <c r="D6">
-        <v>0.60150000000000003</v>
+        <v>0.62139999999999995</v>
       </c>
       <c r="E6">
-        <v>0.65529999999999999</v>
+        <v>0.62190000000000001</v>
       </c>
       <c r="F6">
-        <v>0.64449999999999996</v>
+        <v>0.61550000000000005</v>
       </c>
       <c r="G6">
+        <v>0.60780000000000001</v>
+      </c>
+      <c r="H6">
+        <v>0.60819999999999996</v>
+      </c>
+      <c r="I6">
+        <v>0.61639999999999995</v>
+      </c>
+      <c r="J6">
+        <v>0.61860000000000004</v>
+      </c>
+      <c r="K6">
+        <v>0.67510000000000003</v>
+      </c>
+      <c r="L6">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="M6">
+        <v>0.6401</v>
+      </c>
+      <c r="N6">
+        <v>0.61519999999999997</v>
+      </c>
+      <c r="O6">
+        <v>0.62160000000000004</v>
+      </c>
+      <c r="P6">
+        <v>0.62660000000000005</v>
+      </c>
+      <c r="Q6">
+        <v>0.62890000000000001</v>
+      </c>
+      <c r="R6">
         <v>0.62290000000000001</v>
       </c>
-      <c r="H6">
-        <v>0.61899999999999999</v>
-      </c>
-      <c r="I6">
+      <c r="S6">
+        <v>0.59030000000000005</v>
+      </c>
+      <c r="T6">
+        <v>0.59140000000000004</v>
+      </c>
+      <c r="U6">
+        <v>0.65369999999999995</v>
+      </c>
+      <c r="V6">
+        <v>0.62990000000000002</v>
+      </c>
+      <c r="W6">
+        <v>0.65210000000000001</v>
+      </c>
+      <c r="X6">
+        <v>0.61919999999999997</v>
+      </c>
+      <c r="Y6">
+        <v>0.60389999999999999</v>
+      </c>
+      <c r="Z6">
+        <v>0.61309999999999998</v>
+      </c>
+      <c r="AA6">
+        <v>0.64339999999999997</v>
+      </c>
+      <c r="AB6">
+        <v>0.59450000000000003</v>
+      </c>
+      <c r="AC6">
+        <v>0.64490000000000003</v>
+      </c>
+      <c r="AD6">
         <v>0.62280000000000002</v>
       </c>
-      <c r="J6">
-        <v>0.6512</v>
-      </c>
-      <c r="K6">
-        <v>0.61809999999999998</v>
-      </c>
-      <c r="L6">
-        <v>0.65129999999999999</v>
-      </c>
-      <c r="M6">
-        <v>0.62390000000000001</v>
-      </c>
-      <c r="N6">
-        <v>0.60580000000000001</v>
-      </c>
-      <c r="O6">
-        <v>0.63980000000000004</v>
-      </c>
-      <c r="P6">
-        <v>0.61750000000000005</v>
-      </c>
-      <c r="Q6">
-        <v>0.60529999999999995</v>
-      </c>
-      <c r="R6">
-        <v>0.57250000000000001</v>
-      </c>
-      <c r="S6">
+      <c r="AE6">
+        <v>0.64139999999999997</v>
+      </c>
+      <c r="AF6">
+        <v>0.59119999999999995</v>
+      </c>
+      <c r="AG6">
+        <v>0.62480000000000002</v>
+      </c>
+      <c r="AH6">
         <v>0.62429999999999997</v>
       </c>
-      <c r="T6">
+      <c r="AI6">
+        <v>0.61890000000000001</v>
+      </c>
+      <c r="AJ6">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="AK6">
+        <v>0.63439999999999996</v>
+      </c>
+      <c r="AL6">
+        <v>0.62980000000000003</v>
+      </c>
+      <c r="AM6">
+        <v>0.6351</v>
+      </c>
+      <c r="AN6">
+        <v>0.59519999999999995</v>
+      </c>
+      <c r="AO6">
+        <v>0.58989999999999998</v>
+      </c>
+      <c r="AP6">
+        <v>0.60540000000000005</v>
+      </c>
+      <c r="AQ6">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="AR6">
+        <v>0.58609999999999995</v>
+      </c>
+      <c r="AS6">
         <v>0.62380000000000002</v>
       </c>
-      <c r="U6">
-        <v>0.61170000000000002</v>
-      </c>
-      <c r="V6">
-        <v>0.61350000000000005</v>
-      </c>
-      <c r="W6">
-        <v>0.63400000000000001</v>
-      </c>
-      <c r="X6">
-        <v>0.62419999999999998</v>
-      </c>
-      <c r="Y6">
-        <v>0.59889999999999999</v>
-      </c>
-      <c r="Z6">
-        <v>0.61850000000000005</v>
-      </c>
-      <c r="AA6">
-        <v>0.59770000000000001</v>
-      </c>
-      <c r="AB6">
-        <v>0.60309999999999997</v>
-      </c>
-      <c r="AC6">
-        <v>0.59199999999999997</v>
-      </c>
-      <c r="AD6">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="AE6">
-        <v>0.59019999999999995</v>
-      </c>
-      <c r="AF6">
-        <v>0.59960000000000002</v>
-      </c>
-      <c r="AG6">
-        <v>0.63660000000000005</v>
-      </c>
-      <c r="AH6">
-        <v>0.65510000000000002</v>
-      </c>
-      <c r="AI6">
-        <v>0.61629999999999996</v>
-      </c>
-      <c r="AJ6">
-        <v>0.61629999999999996</v>
-      </c>
-      <c r="AK6">
-        <v>0.61009999999999998</v>
-      </c>
-      <c r="AL6">
-        <v>0.59279999999999999</v>
-      </c>
-      <c r="AM6">
-        <v>0.66949999999999998</v>
-      </c>
-      <c r="AN6">
-        <v>0.64080000000000004</v>
-      </c>
-      <c r="AO6">
-        <v>0.63680000000000003</v>
-      </c>
-      <c r="AP6">
-        <v>0.62509999999999999</v>
-      </c>
-      <c r="AQ6">
-        <v>0.61229999999999996</v>
-      </c>
-      <c r="AR6">
-        <v>0.63870000000000005</v>
-      </c>
-      <c r="AS6">
-        <v>0.64359999999999995</v>
-      </c>
       <c r="AT6">
-        <v>0.61439999999999995</v>
+        <v>0.60429999999999995</v>
       </c>
       <c r="AU6">
-        <v>0.62019999999999997</v>
+        <v>0.62790000000000001</v>
       </c>
       <c r="AV6">
-        <v>0.62709999999999999</v>
+        <v>0.61860000000000004</v>
       </c>
       <c r="AW6">
-        <v>0.62990000000000002</v>
+        <v>0.62209999999999999</v>
       </c>
       <c r="AX6">
-        <v>0.61719999999999997</v>
+        <v>0.59970000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
+        <v>0.5585</v>
+      </c>
+      <c r="B7">
+        <v>0.55630000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.54949999999999999</v>
+      </c>
+      <c r="D7">
+        <v>0.59470000000000001</v>
+      </c>
+      <c r="E7">
+        <v>0.55210000000000004</v>
+      </c>
+      <c r="F7">
+        <v>0.6008</v>
+      </c>
+      <c r="G7">
+        <v>0.57040000000000002</v>
+      </c>
+      <c r="H7">
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0.57089999999999996</v>
+      </c>
+      <c r="J7">
+        <v>0.60229999999999995</v>
+      </c>
+      <c r="K7">
+        <v>0.62070000000000003</v>
+      </c>
+      <c r="L7">
+        <v>0.61250000000000004</v>
+      </c>
+      <c r="M7">
+        <v>0.58750000000000002</v>
+      </c>
+      <c r="N7">
+        <v>0.55510000000000004</v>
+      </c>
+      <c r="O7">
+        <v>0.59450000000000003</v>
+      </c>
+      <c r="P7">
+        <v>0.6079</v>
+      </c>
+      <c r="Q7">
+        <v>0.61529999999999996</v>
+      </c>
+      <c r="R7">
+        <v>0.56379999999999997</v>
+      </c>
+      <c r="S7">
+        <v>0.57940000000000003</v>
+      </c>
+      <c r="T7">
+        <v>0.57979999999999998</v>
+      </c>
+      <c r="U7">
+        <v>0.59179999999999999</v>
+      </c>
+      <c r="V7">
+        <v>0.62029999999999996</v>
+      </c>
+      <c r="W7">
+        <v>0.6129</v>
+      </c>
+      <c r="X7">
         <v>0.60329999999999995</v>
       </c>
-      <c r="B7">
-        <v>0.60250000000000004</v>
-      </c>
-      <c r="C7">
-        <v>0.62160000000000004</v>
-      </c>
-      <c r="D7">
-        <v>0.56879999999999997</v>
-      </c>
-      <c r="E7">
-        <v>0.61680000000000001</v>
-      </c>
-      <c r="F7">
-        <v>0.60819999999999996</v>
-      </c>
-      <c r="G7">
-        <v>0.59370000000000001</v>
-      </c>
-      <c r="H7">
-        <v>0.59309999999999996</v>
-      </c>
-      <c r="I7">
-        <v>0.59460000000000002</v>
-      </c>
-      <c r="J7">
-        <v>0.58740000000000003</v>
-      </c>
-      <c r="K7">
-        <v>0.58809999999999996</v>
-      </c>
-      <c r="L7">
-        <v>0.59870000000000001</v>
-      </c>
-      <c r="M7">
-        <v>0.60519999999999996</v>
-      </c>
-      <c r="N7">
-        <v>0.59409999999999996</v>
-      </c>
-      <c r="O7">
-        <v>0.60799999999999998</v>
-      </c>
-      <c r="P7">
-        <v>0.60260000000000002</v>
-      </c>
-      <c r="Q7">
-        <v>0.59179999999999999</v>
-      </c>
-      <c r="R7">
-        <v>0.55720000000000003</v>
-      </c>
-      <c r="S7">
-        <v>0.60950000000000004</v>
-      </c>
-      <c r="T7">
-        <v>0.56530000000000002</v>
-      </c>
-      <c r="U7">
-        <v>0.6008</v>
-      </c>
-      <c r="V7">
-        <v>0.57030000000000003</v>
-      </c>
-      <c r="W7">
-        <v>0.5968</v>
-      </c>
-      <c r="X7">
-        <v>0.60970000000000002</v>
-      </c>
       <c r="Y7">
-        <v>0.58940000000000003</v>
+        <v>0.55130000000000001</v>
       </c>
       <c r="Z7">
-        <v>0.60160000000000002</v>
+        <v>0.59119999999999995</v>
       </c>
       <c r="AA7">
-        <v>0.55759999999999998</v>
+        <v>0.59689999999999999</v>
       </c>
       <c r="AB7">
-        <v>0.58579999999999999</v>
+        <v>0.5645</v>
       </c>
       <c r="AC7">
-        <v>0.56340000000000001</v>
+        <v>0.61560000000000004</v>
       </c>
       <c r="AD7">
-        <v>0.56859999999999999</v>
+        <v>0.57989999999999997</v>
       </c>
       <c r="AE7">
-        <v>0.56999999999999995</v>
+        <v>0.60329999999999995</v>
       </c>
       <c r="AF7">
-        <v>0.55100000000000005</v>
+        <v>0.57799999999999996</v>
       </c>
       <c r="AG7">
-        <v>0.56389999999999996</v>
+        <v>0.61240000000000006</v>
       </c>
       <c r="AH7">
-        <v>0.62</v>
+        <v>0.58860000000000001</v>
       </c>
       <c r="AI7">
-        <v>0.59630000000000005</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="AJ7">
-        <v>0.56789999999999996</v>
+        <v>0.57330000000000003</v>
       </c>
       <c r="AK7">
-        <v>0.56120000000000003</v>
+        <v>0.61829999999999996</v>
       </c>
       <c r="AL7">
-        <v>0.57930000000000004</v>
+        <v>0.59360000000000002</v>
       </c>
       <c r="AM7">
-        <v>0.63390000000000002</v>
+        <v>0.61119999999999997</v>
       </c>
       <c r="AN7">
-        <v>0.57120000000000004</v>
+        <v>0.55510000000000004</v>
       </c>
       <c r="AO7">
-        <v>0.60809999999999997</v>
+        <v>0.59289999999999998</v>
       </c>
       <c r="AP7">
-        <v>0.58450000000000002</v>
+        <v>0.56540000000000001</v>
       </c>
       <c r="AQ7">
-        <v>0.56979999999999997</v>
+        <v>0.60350000000000004</v>
       </c>
       <c r="AR7">
-        <v>0.61890000000000001</v>
+        <v>0.53659999999999997</v>
       </c>
       <c r="AS7">
-        <v>0.58209999999999995</v>
+        <v>0.62309999999999999</v>
       </c>
       <c r="AT7">
-        <v>0.58599999999999997</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="AU7">
-        <v>0.58830000000000005</v>
+        <v>0.59660000000000002</v>
       </c>
       <c r="AV7">
-        <v>0.59889999999999999</v>
+        <v>0.56240000000000001</v>
       </c>
       <c r="AW7">
-        <v>0.59789999999999999</v>
+        <v>0.56920000000000004</v>
       </c>
       <c r="AX7">
-        <v>0.58020000000000005</v>
+        <v>0.57840000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>0.56220000000000003</v>
+      </c>
+      <c r="B8">
+        <v>0.54069999999999996</v>
+      </c>
+      <c r="C8">
+        <v>0.51829999999999998</v>
+      </c>
+      <c r="D8">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="E8">
+        <v>0.55179999999999996</v>
+      </c>
+      <c r="F8">
+        <v>0.57110000000000005</v>
+      </c>
+      <c r="G8">
+        <v>0.53420000000000001</v>
+      </c>
+      <c r="H8">
+        <v>0.56779999999999997</v>
+      </c>
+      <c r="I8">
+        <v>0.5464</v>
+      </c>
+      <c r="J8">
+        <v>0.55149999999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.60419999999999996</v>
+      </c>
+      <c r="L8">
+        <v>0.58850000000000002</v>
+      </c>
+      <c r="M8">
+        <v>0.56230000000000002</v>
+      </c>
+      <c r="N8">
+        <v>0.55289999999999995</v>
+      </c>
+      <c r="O8">
+        <v>0.56730000000000003</v>
+      </c>
+      <c r="P8">
+        <v>0.56769999999999998</v>
+      </c>
+      <c r="Q8">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="R8">
+        <v>0.54779999999999995</v>
+      </c>
+      <c r="S8">
+        <v>0.5615</v>
+      </c>
+      <c r="T8">
+        <v>0.57499999999999996</v>
+      </c>
+      <c r="U8">
+        <v>0.60150000000000003</v>
+      </c>
+      <c r="V8">
+        <v>0.57979999999999998</v>
+      </c>
+      <c r="W8">
+        <v>0.58260000000000001</v>
+      </c>
+      <c r="X8">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="Y8">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="Z8">
+        <v>0.56579999999999997</v>
+      </c>
+      <c r="AA8">
+        <v>0.57530000000000003</v>
+      </c>
+      <c r="AB8">
+        <v>0.54859999999999998</v>
+      </c>
+      <c r="AC8">
         <v>0.57120000000000004</v>
       </c>
-      <c r="B8">
-        <v>0.58179999999999998</v>
-      </c>
-      <c r="C8">
-        <v>0.59640000000000004</v>
-      </c>
-      <c r="D8">
-        <v>0.54930000000000001</v>
-      </c>
-      <c r="E8">
-        <v>0.56789999999999996</v>
-      </c>
-      <c r="F8">
-        <v>0.56659999999999999</v>
-      </c>
-      <c r="G8">
-        <v>0.55789999999999995</v>
-      </c>
-      <c r="H8">
-        <v>0.57989999999999997</v>
-      </c>
-      <c r="I8">
-        <v>0.56120000000000003</v>
-      </c>
-      <c r="J8">
-        <v>0.55469999999999997</v>
-      </c>
-      <c r="K8">
-        <v>0.55879999999999996</v>
-      </c>
-      <c r="L8">
-        <v>0.5645</v>
-      </c>
-      <c r="M8">
+      <c r="AD8">
+        <v>0.54279999999999995</v>
+      </c>
+      <c r="AE8">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="AF8">
+        <v>0.54720000000000002</v>
+      </c>
+      <c r="AG8">
+        <v>0.59450000000000003</v>
+      </c>
+      <c r="AH8">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="AI8">
+        <v>0.58109999999999995</v>
+      </c>
+      <c r="AJ8">
+        <v>0.56859999999999999</v>
+      </c>
+      <c r="AK8">
+        <v>0.5796</v>
+      </c>
+      <c r="AL8">
+        <v>0.5393</v>
+      </c>
+      <c r="AM8">
         <v>0.57569999999999999</v>
       </c>
-      <c r="N8">
-        <v>0.58199999999999996</v>
-      </c>
-      <c r="O8">
-        <v>0.55779999999999996</v>
-      </c>
-      <c r="P8">
-        <v>0.56889999999999996</v>
-      </c>
-      <c r="Q8">
+      <c r="AN8">
+        <v>0.53359999999999996</v>
+      </c>
+      <c r="AO8">
+        <v>0.58330000000000004</v>
+      </c>
+      <c r="AP8">
         <v>0.55100000000000005</v>
       </c>
-      <c r="R8">
-        <v>0.56869999999999998</v>
-      </c>
-      <c r="S8">
-        <v>0.59870000000000001</v>
-      </c>
-      <c r="T8">
-        <v>0.54869999999999997</v>
-      </c>
-      <c r="U8">
-        <v>0.56969999999999998</v>
-      </c>
-      <c r="V8">
-        <v>0.56820000000000004</v>
-      </c>
-      <c r="W8">
-        <v>0.55400000000000005</v>
-      </c>
-      <c r="X8">
-        <v>0.57199999999999995</v>
-      </c>
-      <c r="Y8">
-        <v>0.55089999999999995</v>
-      </c>
-      <c r="Z8">
-        <v>0.5665</v>
-      </c>
-      <c r="AA8">
-        <v>0.53949999999999998</v>
-      </c>
-      <c r="AB8">
-        <v>0.57310000000000005</v>
-      </c>
-      <c r="AC8">
-        <v>0.56630000000000003</v>
-      </c>
-      <c r="AD8">
-        <v>0.56179999999999997</v>
-      </c>
-      <c r="AE8">
-        <v>0.52910000000000001</v>
-      </c>
-      <c r="AF8">
-        <v>0.51290000000000002</v>
-      </c>
-      <c r="AG8">
-        <v>0.54430000000000001</v>
-      </c>
-      <c r="AH8">
-        <v>0.58460000000000001</v>
-      </c>
-      <c r="AI8">
-        <v>0.59209999999999996</v>
-      </c>
-      <c r="AJ8">
-        <v>0.56710000000000005</v>
-      </c>
-      <c r="AK8">
-        <v>0.54800000000000004</v>
-      </c>
-      <c r="AL8">
-        <v>0.57169999999999999</v>
-      </c>
-      <c r="AM8">
-        <v>0.59930000000000005</v>
-      </c>
-      <c r="AN8">
-        <v>0.54869999999999997</v>
-      </c>
-      <c r="AO8">
-        <v>0.59209999999999996</v>
-      </c>
-      <c r="AP8">
-        <v>0.53439999999999999</v>
-      </c>
       <c r="AQ8">
-        <v>0.57709999999999995</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="AR8">
-        <v>0.56169999999999998</v>
+        <v>0.53710000000000002</v>
       </c>
       <c r="AS8">
-        <v>0.5665</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="AT8">
-        <v>0.57240000000000002</v>
+        <v>0.54120000000000001</v>
       </c>
       <c r="AU8">
-        <v>0.54700000000000004</v>
+        <v>0.5716</v>
       </c>
       <c r="AV8">
-        <v>0.57650000000000001</v>
+        <v>0.54169999999999996</v>
       </c>
       <c r="AW8">
-        <v>0.56899999999999995</v>
+        <v>0.53659999999999997</v>
       </c>
       <c r="AX8">
-        <v>0.55930000000000002</v>
+        <v>0.54530000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.55740000000000001</v>
+        <v>0.55010000000000003</v>
       </c>
       <c r="B9">
-        <v>0.55420000000000003</v>
+        <v>0.51619999999999999</v>
       </c>
       <c r="C9">
-        <v>0.58009999999999995</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="D9">
-        <v>0.51380000000000003</v>
+        <v>0.5736</v>
       </c>
       <c r="E9">
-        <v>0.54069999999999996</v>
+        <v>0.53249999999999997</v>
       </c>
       <c r="F9">
-        <v>0.55220000000000002</v>
+        <v>0.55269999999999997</v>
       </c>
       <c r="G9">
-        <v>0.53969999999999996</v>
+        <v>0.49909999999999999</v>
       </c>
       <c r="H9">
+        <v>0.54649999999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.52610000000000001</v>
+      </c>
+      <c r="J9">
+        <v>0.54720000000000002</v>
+      </c>
+      <c r="K9">
+        <v>0.5897</v>
+      </c>
+      <c r="L9">
+        <v>0.57930000000000004</v>
+      </c>
+      <c r="M9">
+        <v>0.5494</v>
+      </c>
+      <c r="N9">
+        <v>0.54290000000000005</v>
+      </c>
+      <c r="O9">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="P9">
+        <v>0.56810000000000005</v>
+      </c>
+      <c r="Q9">
+        <v>0.55279999999999996</v>
+      </c>
+      <c r="R9">
+        <v>0.5151</v>
+      </c>
+      <c r="S9">
         <v>0.5464</v>
       </c>
-      <c r="I9">
-        <v>0.53380000000000005</v>
-      </c>
-      <c r="J9">
-        <v>0.55889999999999995</v>
-      </c>
-      <c r="K9">
-        <v>0.54010000000000002</v>
-      </c>
-      <c r="L9">
-        <v>0.55079999999999996</v>
-      </c>
-      <c r="M9">
-        <v>0.52910000000000001</v>
-      </c>
-      <c r="N9">
-        <v>0.54720000000000002</v>
-      </c>
-      <c r="O9">
-        <v>0.53069999999999995</v>
-      </c>
-      <c r="P9">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="Q9">
-        <v>0.56379999999999997</v>
-      </c>
-      <c r="R9">
-        <v>0.53549999999999998</v>
-      </c>
-      <c r="S9">
-        <v>0.59609999999999996</v>
-      </c>
       <c r="T9">
-        <v>0.56089999999999995</v>
+        <v>0.53949999999999998</v>
       </c>
       <c r="U9">
-        <v>0.56999999999999995</v>
+        <v>0.55589999999999995</v>
       </c>
       <c r="V9">
-        <v>0.54310000000000003</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="W9">
-        <v>0.5403</v>
+        <v>0.56810000000000005</v>
       </c>
       <c r="X9">
-        <v>0.57350000000000001</v>
+        <v>0.53849999999999998</v>
       </c>
       <c r="Y9">
-        <v>0.54049999999999998</v>
+        <v>0.51619999999999999</v>
       </c>
       <c r="Z9">
-        <v>0.57240000000000002</v>
+        <v>0.55489999999999995</v>
       </c>
       <c r="AA9">
-        <v>0.57079999999999997</v>
+        <v>0.55249999999999999</v>
       </c>
       <c r="AB9">
-        <v>0.58079999999999998</v>
+        <v>0.53839999999999999</v>
       </c>
       <c r="AC9">
-        <v>0.54859999999999998</v>
+        <v>0.55859999999999999</v>
       </c>
       <c r="AD9">
-        <v>0.5504</v>
+        <v>0.53639999999999999</v>
       </c>
       <c r="AE9">
-        <v>0.51849999999999996</v>
+        <v>0.56579999999999997</v>
       </c>
       <c r="AF9">
-        <v>0.52410000000000001</v>
+        <v>0.53559999999999997</v>
       </c>
       <c r="AG9">
-        <v>0.5242</v>
+        <v>0.5645</v>
       </c>
       <c r="AH9">
-        <v>0.55530000000000002</v>
+        <v>0.55279999999999996</v>
       </c>
       <c r="AI9">
-        <v>0.58489999999999998</v>
+        <v>0.55649999999999999</v>
       </c>
       <c r="AJ9">
-        <v>0.56000000000000005</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="AK9">
-        <v>0.56169999999999998</v>
+        <v>0.56159999999999999</v>
       </c>
       <c r="AL9">
-        <v>0.55069999999999997</v>
+        <v>0.53469999999999995</v>
       </c>
       <c r="AM9">
-        <v>0.59919999999999995</v>
+        <v>0.55579999999999996</v>
       </c>
       <c r="AN9">
-        <v>0.54390000000000005</v>
+        <v>0.54610000000000003</v>
       </c>
       <c r="AO9">
-        <v>0.54969999999999997</v>
+        <v>0.56520000000000004</v>
       </c>
       <c r="AP9">
-        <v>0.56389999999999996</v>
+        <v>0.54200000000000004</v>
       </c>
       <c r="AQ9">
-        <v>0.53659999999999997</v>
+        <v>0.54149999999999998</v>
       </c>
       <c r="AR9">
-        <v>0.55569999999999997</v>
+        <v>0.50619999999999998</v>
       </c>
       <c r="AS9">
-        <v>0.55000000000000004</v>
+        <v>0.60070000000000001</v>
       </c>
       <c r="AT9">
-        <v>0.57440000000000002</v>
+        <v>0.53</v>
       </c>
       <c r="AU9">
-        <v>0.53720000000000001</v>
+        <v>0.53039999999999998</v>
       </c>
       <c r="AV9">
-        <v>0.53680000000000005</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="AW9">
-        <v>0.56230000000000002</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="AX9">
-        <v>0.57950000000000002</v>
+        <v>0.5262</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.54790000000000005</v>
+        <v>0.54930000000000001</v>
       </c>
       <c r="B10">
-        <v>0.54359999999999997</v>
+        <v>0.53559999999999997</v>
       </c>
       <c r="C10">
-        <v>0.54900000000000004</v>
+        <v>0.51029999999999998</v>
       </c>
       <c r="D10">
-        <v>0.52159999999999995</v>
+        <v>0.56459999999999999</v>
       </c>
       <c r="E10">
-        <v>0.53990000000000005</v>
+        <v>0.52880000000000005</v>
       </c>
       <c r="F10">
-        <v>0.52590000000000003</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="G10">
-        <v>0.54090000000000005</v>
+        <v>0.50329999999999997</v>
       </c>
       <c r="H10">
-        <v>0.5423</v>
+        <v>0.53669999999999995</v>
       </c>
       <c r="I10">
+        <v>0.50419999999999998</v>
+      </c>
+      <c r="J10">
+        <v>0.55530000000000002</v>
+      </c>
+      <c r="K10">
+        <v>0.56389999999999996</v>
+      </c>
+      <c r="L10">
+        <v>0.56520000000000004</v>
+      </c>
+      <c r="M10">
+        <v>0.53380000000000005</v>
+      </c>
+      <c r="N10">
+        <v>0.5262</v>
+      </c>
+      <c r="O10">
+        <v>0.55230000000000001</v>
+      </c>
+      <c r="P10">
+        <v>0.54049999999999998</v>
+      </c>
+      <c r="Q10">
+        <v>0.54749999999999999</v>
+      </c>
+      <c r="R10">
+        <v>0.50629999999999997</v>
+      </c>
+      <c r="S10">
+        <v>0.52429999999999999</v>
+      </c>
+      <c r="T10">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="U10">
+        <v>0.54979999999999996</v>
+      </c>
+      <c r="V10">
         <v>0.5363</v>
       </c>
-      <c r="J10">
-        <v>0.55259999999999998</v>
-      </c>
-      <c r="K10">
-        <v>0.53639999999999999</v>
-      </c>
-      <c r="L10">
-        <v>0.54479999999999995</v>
-      </c>
-      <c r="M10">
-        <v>0.54010000000000002</v>
-      </c>
-      <c r="N10">
-        <v>0.55130000000000001</v>
-      </c>
-      <c r="O10">
-        <v>0.51029999999999998</v>
-      </c>
-      <c r="P10">
+      <c r="W10">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="X10">
+        <v>0.52669999999999995</v>
+      </c>
+      <c r="Y10">
+        <v>0.51190000000000002</v>
+      </c>
+      <c r="Z10">
         <v>0.5605</v>
       </c>
-      <c r="Q10">
-        <v>0.53549999999999998</v>
-      </c>
-      <c r="R10">
-        <v>0.50080000000000002</v>
-      </c>
-      <c r="S10">
-        <v>0.59260000000000002</v>
-      </c>
-      <c r="T10">
-        <v>0.58289999999999997</v>
-      </c>
-      <c r="U10">
-        <v>0.57320000000000004</v>
-      </c>
-      <c r="V10">
-        <v>0.53559999999999997</v>
-      </c>
-      <c r="W10">
-        <v>0.52090000000000003</v>
-      </c>
-      <c r="X10">
-        <v>0.56630000000000003</v>
-      </c>
-      <c r="Y10">
-        <v>0.53580000000000005</v>
-      </c>
-      <c r="Z10">
-        <v>0.54990000000000006</v>
-      </c>
       <c r="AA10">
-        <v>0.53769999999999996</v>
+        <v>0.55420000000000003</v>
       </c>
       <c r="AB10">
-        <v>0.55610000000000004</v>
+        <v>0.50849999999999995</v>
       </c>
       <c r="AC10">
-        <v>0.55669999999999997</v>
+        <v>0.5464</v>
       </c>
       <c r="AD10">
-        <v>0.53159999999999996</v>
+        <v>0.51280000000000003</v>
       </c>
       <c r="AE10">
-        <v>0.52329999999999999</v>
+        <v>0.5484</v>
       </c>
       <c r="AF10">
-        <v>0.53259999999999996</v>
+        <v>0.51970000000000005</v>
       </c>
       <c r="AG10">
-        <v>0.51</v>
+        <v>0.56089999999999995</v>
       </c>
       <c r="AH10">
-        <v>0.52400000000000002</v>
+        <v>0.54020000000000001</v>
       </c>
       <c r="AI10">
-        <v>0.55020000000000002</v>
+        <v>0.55120000000000002</v>
       </c>
       <c r="AJ10">
-        <v>0.55130000000000001</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="AK10">
-        <v>0.54369999999999996</v>
+        <v>0.58150000000000002</v>
       </c>
       <c r="AL10">
-        <v>0.52500000000000002</v>
+        <v>0.50880000000000003</v>
       </c>
       <c r="AM10">
-        <v>0.57650000000000001</v>
+        <v>0.51859999999999995</v>
       </c>
       <c r="AN10">
-        <v>0.52149999999999996</v>
+        <v>0.53680000000000005</v>
       </c>
       <c r="AO10">
-        <v>0.53790000000000004</v>
+        <v>0.53600000000000003</v>
       </c>
       <c r="AP10">
-        <v>0.55200000000000005</v>
+        <v>0.54710000000000003</v>
       </c>
       <c r="AQ10">
-        <v>0.55820000000000003</v>
+        <v>0.53610000000000002</v>
       </c>
       <c r="AR10">
-        <v>0.53029999999999999</v>
+        <v>0.497</v>
       </c>
       <c r="AS10">
-        <v>0.54379999999999995</v>
+        <v>0.57540000000000002</v>
       </c>
       <c r="AT10">
-        <v>0.54320000000000002</v>
+        <v>0.52659999999999996</v>
       </c>
       <c r="AU10">
-        <v>0.53200000000000003</v>
+        <v>0.50490000000000002</v>
       </c>
       <c r="AV10">
-        <v>0.54090000000000005</v>
+        <v>0.51639999999999997</v>
       </c>
       <c r="AW10">
-        <v>0.54469999999999996</v>
+        <v>0.52190000000000003</v>
       </c>
       <c r="AX10">
-        <v>0.56569999999999998</v>
+        <v>0.54959999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.52880000000000005</v>
+        <v>0.5474</v>
       </c>
       <c r="B11">
-        <v>0.53939999999999999</v>
+        <v>0.52010000000000001</v>
       </c>
       <c r="C11">
-        <v>0.53439999999999999</v>
+        <v>0.51290000000000002</v>
       </c>
       <c r="D11">
-        <v>0.50939999999999996</v>
+        <v>0.53749999999999998</v>
       </c>
       <c r="E11">
-        <v>0.5292</v>
+        <v>0.50309999999999999</v>
       </c>
       <c r="F11">
-        <v>0.5</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="G11">
-        <v>0.51</v>
+        <v>0.50149999999999995</v>
       </c>
       <c r="H11">
-        <v>0.5353</v>
+        <v>0.51190000000000002</v>
       </c>
       <c r="I11">
-        <v>0.53790000000000004</v>
+        <v>0.49490000000000001</v>
       </c>
       <c r="J11">
-        <v>0.51580000000000004</v>
+        <v>0.51870000000000005</v>
       </c>
       <c r="K11">
-        <v>0.52270000000000005</v>
+        <v>0.55479999999999996</v>
       </c>
       <c r="L11">
-        <v>0.52929999999999999</v>
+        <v>0.54920000000000002</v>
       </c>
       <c r="M11">
-        <v>0.54449999999999998</v>
+        <v>0.53959999999999997</v>
       </c>
       <c r="N11">
-        <v>0.55220000000000002</v>
+        <v>0.52669999999999995</v>
       </c>
       <c r="O11">
-        <v>0.51219999999999999</v>
+        <v>0.53890000000000005</v>
       </c>
       <c r="P11">
-        <v>0.5161</v>
+        <v>0.52939999999999998</v>
       </c>
       <c r="Q11">
-        <v>0.50829999999999997</v>
+        <v>0.50370000000000004</v>
       </c>
       <c r="R11">
-        <v>0.53800000000000003</v>
+        <v>0.51319999999999999</v>
       </c>
       <c r="S11">
-        <v>0.57299999999999995</v>
+        <v>0.51539999999999997</v>
       </c>
       <c r="T11">
-        <v>0.54920000000000002</v>
+        <v>0.50149999999999995</v>
       </c>
       <c r="U11">
-        <v>0.53620000000000001</v>
+        <v>0.52549999999999997</v>
       </c>
       <c r="V11">
-        <v>0.51480000000000004</v>
+        <v>0.51439999999999997</v>
       </c>
       <c r="W11">
-        <v>0.52270000000000005</v>
+        <v>0.56079999999999997</v>
       </c>
       <c r="X11">
-        <v>0.52969999999999995</v>
+        <v>0.52780000000000005</v>
       </c>
       <c r="Y11">
-        <v>0.5262</v>
+        <v>0.52129999999999999</v>
       </c>
       <c r="Z11">
         <v>0.52239999999999998</v>
       </c>
       <c r="AA11">
-        <v>0.54390000000000005</v>
+        <v>0.56869999999999998</v>
       </c>
       <c r="AB11">
-        <v>0.55620000000000003</v>
+        <v>0.50780000000000003</v>
       </c>
       <c r="AC11">
-        <v>0.55230000000000001</v>
+        <v>0.51819999999999999</v>
       </c>
       <c r="AD11">
-        <v>0.53069999999999995</v>
+        <v>0.50149999999999995</v>
       </c>
       <c r="AE11">
-        <v>0.51449999999999996</v>
+        <v>0.5554</v>
       </c>
       <c r="AF11">
-        <v>0.5232</v>
+        <v>0.496</v>
       </c>
       <c r="AG11">
-        <v>0.51629999999999998</v>
+        <v>0.5282</v>
       </c>
       <c r="AH11">
-        <v>0.51549999999999996</v>
+        <v>0.51859999999999995</v>
       </c>
       <c r="AI11">
-        <v>0.52490000000000003</v>
+        <v>0.53910000000000002</v>
       </c>
       <c r="AJ11">
-        <v>0.53659999999999997</v>
+        <v>0.53239999999999998</v>
       </c>
       <c r="AK11">
-        <v>0.52880000000000005</v>
+        <v>0.58289999999999997</v>
       </c>
       <c r="AL11">
-        <v>0.50070000000000003</v>
+        <v>0.49</v>
       </c>
       <c r="AM11">
-        <v>0.55349999999999999</v>
+        <v>0.49659999999999999</v>
       </c>
       <c r="AN11">
-        <v>0.49399999999999999</v>
+        <v>0.52110000000000001</v>
       </c>
       <c r="AO11">
-        <v>0.51559999999999995</v>
+        <v>0.51290000000000002</v>
       </c>
       <c r="AP11">
-        <v>0.55189999999999995</v>
+        <v>0.51959999999999995</v>
       </c>
       <c r="AQ11">
-        <v>0.53410000000000002</v>
+        <v>0.52410000000000001</v>
       </c>
       <c r="AR11">
-        <v>0.5101</v>
+        <v>0.50029999999999997</v>
       </c>
       <c r="AS11">
-        <v>0.54079999999999995</v>
+        <v>0.57130000000000003</v>
       </c>
       <c r="AT11">
-        <v>0.53180000000000005</v>
+        <v>0.51370000000000005</v>
       </c>
       <c r="AU11">
-        <v>0.54220000000000002</v>
+        <v>0.50360000000000005</v>
       </c>
       <c r="AV11">
-        <v>0.54520000000000002</v>
+        <v>0.5151</v>
       </c>
       <c r="AW11">
-        <v>0.5171</v>
+        <v>0.51719999999999999</v>
       </c>
       <c r="AX11">
-        <v>0.5806</v>
+        <v>0.53539999999999999</v>
       </c>
     </row>
   </sheetData>
